--- a/Data/Call/Call_CRB.xlsx
+++ b/Data/Call/Call_CRB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>FFTR</t>
   </si>
@@ -52,9 +52,6 @@
     <t>CRB12</t>
   </si>
   <si>
-    <t>CRB13</t>
-  </si>
-  <si>
     <t>CRB15</t>
   </si>
   <si>
@@ -118,16 +115,10 @@
     <t>CRB61</t>
   </si>
   <si>
-    <t>CRB62</t>
-  </si>
-  <si>
     <t>CRB65</t>
   </si>
   <si>
     <t>CRB71</t>
-  </si>
-  <si>
-    <t>CRB72</t>
   </si>
   <si>
     <t>CRB73</t>
@@ -494,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,31 +528,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -569,25 +560,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -601,31 +592,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -633,31 +624,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -665,31 +656,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -697,31 +688,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -729,31 +720,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -761,31 +752,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
         <v>10</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9">
-        <v>11</v>
-      </c>
       <c r="I9">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J9">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -796,28 +787,28 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -825,10 +816,10 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -837,19 +828,19 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
         <v>6</v>
       </c>
-      <c r="H11">
-        <v>11</v>
-      </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -857,31 +848,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
         <v>6</v>
       </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
-      <c r="G12">
-        <v>14</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
       <c r="J12">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -889,31 +880,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
         <v>7</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
       <c r="G13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -921,31 +912,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -953,31 +944,31 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
         <v>7</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>7</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -985,31 +976,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1017,13 +1008,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1032,16 +1023,16 @@
         <v>5</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1049,31 +1040,31 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
         <v>7</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1081,31 +1072,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19">
         <v>18</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J19">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1113,31 +1104,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1145,31 +1136,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1177,31 +1168,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1209,31 +1200,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>4</v>
       </c>
-      <c r="F23">
-        <v>7</v>
-      </c>
-      <c r="G23">
-        <v>9</v>
-      </c>
-      <c r="H23">
-        <v>16</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1241,31 +1232,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I24">
         <v>4</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1273,28 +1264,28 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1305,31 +1296,31 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
         <v>7</v>
       </c>
-      <c r="C26">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <v>6</v>
-      </c>
       <c r="F26">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1337,25 +1328,25 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1375,25 +1366,25 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H28">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1401,127 +1392,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>8</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>10</v>
-      </c>
-      <c r="H31">
-        <v>15</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32">
-        <v>9</v>
-      </c>
-      <c r="C32">
-        <v>9</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>13</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32">
-        <v>12</v>
-      </c>
-      <c r="H32">
-        <v>8</v>
-      </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Call/Call_CRB.xlsx
+++ b/Data/Call/Call_CRB.xlsx
@@ -14,36 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>FFTR</t>
   </si>
   <si>
-    <t>LIGAZID Call</t>
-  </si>
-  <si>
-    <t>EMAZID Call</t>
-  </si>
-  <si>
-    <t>LIPICON Call</t>
-  </si>
-  <si>
-    <t>AGLIP Call</t>
-  </si>
-  <si>
-    <t>CIFIBET Call</t>
-  </si>
-  <si>
-    <t>AMLEVO Call</t>
-  </si>
-  <si>
-    <t>CARDOBIS Call</t>
-  </si>
-  <si>
-    <t>RIVAROX Call</t>
-  </si>
-  <si>
-    <t>Noclog Call</t>
+    <t>LIGAZID</t>
+  </si>
+  <si>
+    <t>EMAZID</t>
+  </si>
+  <si>
+    <t>LIPICON</t>
+  </si>
+  <si>
+    <t>AGLIP</t>
+  </si>
+  <si>
+    <t>CIFIBET</t>
+  </si>
+  <si>
+    <t>AMLEVO</t>
+  </si>
+  <si>
+    <t>CARDOBIS</t>
+  </si>
+  <si>
+    <t>RIVAROX</t>
+  </si>
+  <si>
+    <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CRB</t>
+  </si>
+  <si>
+    <t>CRB10</t>
   </si>
   <si>
     <t>CRB11</t>
@@ -52,9 +58,21 @@
     <t>CRB12</t>
   </si>
   <si>
+    <t>CRB13</t>
+  </si>
+  <si>
+    <t>CRB14</t>
+  </si>
+  <si>
     <t>CRB15</t>
   </si>
   <si>
+    <t>CRB16</t>
+  </si>
+  <si>
+    <t>CRB20</t>
+  </si>
+  <si>
     <t>CRB21</t>
   </si>
   <si>
@@ -73,18 +91,27 @@
     <t>CRB26</t>
   </si>
   <si>
+    <t>CRB30</t>
+  </si>
+  <si>
     <t>CRB31</t>
   </si>
   <si>
     <t>CRB32</t>
   </si>
   <si>
+    <t>CRB33</t>
+  </si>
+  <si>
     <t>CRB34</t>
   </si>
   <si>
     <t>CRB35</t>
   </si>
   <si>
+    <t>CRB40</t>
+  </si>
+  <si>
     <t>CRB41</t>
   </si>
   <si>
@@ -97,6 +124,9 @@
     <t>CRB44</t>
   </si>
   <si>
+    <t>CRB50</t>
+  </si>
+  <si>
     <t>CRB51</t>
   </si>
   <si>
@@ -112,13 +142,31 @@
     <t>CRB55</t>
   </si>
   <si>
+    <t>CRB60</t>
+  </si>
+  <si>
     <t>CRB61</t>
   </si>
   <si>
+    <t>CRB62</t>
+  </si>
+  <si>
+    <t>CRB63</t>
+  </si>
+  <si>
+    <t>CRB64</t>
+  </si>
+  <si>
     <t>CRB65</t>
   </si>
   <si>
+    <t>CRB70</t>
+  </si>
+  <si>
     <t>CRB71</t>
+  </si>
+  <si>
+    <t>CRB72</t>
   </si>
   <si>
     <t>CRB73</t>
@@ -485,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +576,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -569,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -592,31 +640,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -624,31 +672,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -656,31 +704,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -688,31 +736,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -720,31 +768,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -752,31 +800,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -784,31 +832,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -816,31 +864,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -848,31 +896,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -880,31 +928,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -924,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -944,31 +992,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -976,31 +1024,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1008,31 +1056,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1040,31 +1088,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1072,31 +1120,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1104,31 +1152,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1136,10 +1184,10 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1148,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1168,31 +1216,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1203,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1232,28 +1280,28 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1264,31 +1312,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1296,31 +1344,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1328,7 +1376,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1343,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1360,31 +1408,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1392,31 +1440,543 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Call/Call_CRB.xlsx
+++ b/Data/Call/Call_CRB.xlsx
@@ -576,31 +576,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -614,25 +614,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -748,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -832,31 +832,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -864,31 +864,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -896,31 +896,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -928,31 +928,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -960,31 +960,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -992,31 +992,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1024,28 +1024,28 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1056,31 +1056,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1120,31 +1120,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1184,31 +1184,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1216,31 +1216,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1248,31 +1248,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1280,31 +1280,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1312,31 +1312,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1344,31 +1344,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1376,31 +1376,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1408,31 +1408,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1440,31 +1440,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1472,31 +1472,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1536,31 +1536,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1600,31 +1600,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1632,31 +1632,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1696,31 +1696,31 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1728,31 +1728,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1760,28 +1760,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -1792,31 +1792,31 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1824,31 +1824,31 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1856,31 +1856,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1888,7 +1888,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10">
